--- a/StructureDefinition-ext-R5-SubstanceReferenceInformation.xlsx
+++ b/StructureDefinition-ext-R5-SubstanceReferenceInformation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ext-R5-SubstanceReferenceInformation.xlsx
+++ b/StructureDefinition-ext-R5-SubstanceReferenceInformation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3188" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3188" uniqueCount="265">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -379,6 +379,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceReferenceInformation.comment</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -440,6 +443,9 @@
     <t>Extension.extension.extension.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceReferenceInformation.gene.geneSequenceOrigin</t>
+  </si>
+  <si>
     <t>Extension.extension:gene.extension:geneSequenceOrigin.value[x]</t>
   </si>
   <si>
@@ -465,6 +471,9 @@
     <t>Extension.extension:gene.extension:gene.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceReferenceInformation.gene.gene</t>
+  </si>
+  <si>
     <t>Extension.extension:gene.extension:gene.value[x]</t>
   </si>
   <si>
@@ -484,6 +493,9 @@
   </si>
   <si>
     <t>Extension.extension:gene.extension:source.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceReferenceInformation.gene.source</t>
   </si>
   <si>
     <t>Extension.extension:gene.extension:source.value[x]</t>
@@ -545,6 +557,9 @@
     <t>Extension.extension:geneElement.extension:type.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceReferenceInformation.geneElement.type</t>
+  </si>
+  <si>
     <t>Extension.extension:geneElement.extension:type.value[x]</t>
   </si>
   <si>
@@ -564,6 +579,9 @@
   </si>
   <si>
     <t>Extension.extension:geneElement.extension:element.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceReferenceInformation.geneElement.element</t>
   </si>
   <si>
     <t>Extension.extension:geneElement.extension:element.value[x]</t>
@@ -588,6 +606,9 @@
     <t>Extension.extension:geneElement.extension:source.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceReferenceInformation.geneElement.source</t>
+  </si>
+  <si>
     <t>Extension.extension:geneElement.extension:source.value[x]</t>
   </si>
   <si>
@@ -630,6 +651,9 @@
     <t>Extension.extension:target.extension:target.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceReferenceInformation.target.target</t>
+  </si>
+  <si>
     <t>Extension.extension:target.extension:target.value[x]</t>
   </si>
   <si>
@@ -648,6 +672,9 @@
     <t>Extension.extension:target.extension:type.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceReferenceInformation.target.type</t>
+  </si>
+  <si>
     <t>Extension.extension:target.extension:type.value[x]</t>
   </si>
   <si>
@@ -669,6 +696,9 @@
     <t>Extension.extension:target.extension:interaction.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceReferenceInformation.target.interaction</t>
+  </si>
+  <si>
     <t>Extension.extension:target.extension:interaction.value[x]</t>
   </si>
   <si>
@@ -690,6 +720,9 @@
     <t>Extension.extension:target.extension:organism.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceReferenceInformation.target.organism</t>
+  </si>
+  <si>
     <t>Extension.extension:target.extension:organism.value[x]</t>
   </si>
   <si>
@@ -711,6 +744,9 @@
     <t>Extension.extension:target.extension:organismType.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceReferenceInformation.target.organismType</t>
+  </si>
+  <si>
     <t>Extension.extension:target.extension:organismType.value[x]</t>
   </si>
   <si>
@@ -730,6 +766,9 @@
   </si>
   <si>
     <t>Extension.extension:target.extension:amount.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceReferenceInformation.target.amount</t>
   </si>
   <si>
     <t>Extension.extension:target.extension:amount.value[x]</t>
@@ -757,6 +796,9 @@
     <t>Extension.extension:target.extension:amountType.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceReferenceInformation.target.amountType</t>
+  </si>
+  <si>
     <t>Extension.extension:target.extension:amountType.value[x]</t>
   </si>
   <si>
@@ -773,6 +815,9 @@
   </si>
   <si>
     <t>Extension.extension:target.extension:source.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceReferenceInformation.target.source</t>
   </si>
   <si>
     <t>Extension.extension:target.extension:source.value[x]</t>
@@ -1930,7 +1975,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1972,7 +2017,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -1987,15 +2032,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2075,7 +2120,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2087,21 +2132,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2133,7 +2178,7 @@
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2202,7 +2247,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>103</v>
@@ -2305,7 +2350,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>105</v>
@@ -2408,13 +2453,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>105</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>77</v>
@@ -2446,7 +2491,7 @@
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>77</v>
@@ -2515,10 +2560,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2618,10 +2663,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2723,10 +2768,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2766,7 +2811,7 @@
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>77</v>
@@ -2808,7 +2853,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>86</v>
@@ -2823,15 +2868,15 @@
         <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2854,7 +2899,7 @@
         <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>81</v>
@@ -2911,7 +2956,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -2923,21 +2968,21 @@
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>105</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
@@ -2969,7 +3014,7 @@
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -3038,10 +3083,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3141,10 +3186,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3246,10 +3291,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3289,7 +3334,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>77</v>
@@ -3331,7 +3376,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>86</v>
@@ -3346,15 +3391,15 @@
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3377,7 +3422,7 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>81</v>
@@ -3434,7 +3479,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3446,21 +3491,21 @@
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>105</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3492,7 +3537,7 @@
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3561,10 +3606,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3664,10 +3709,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3769,10 +3814,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3812,7 +3857,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3854,7 +3899,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>86</v>
@@ -3869,15 +3914,15 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3900,7 +3945,7 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>81</v>
@@ -3957,7 +4002,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -3969,15 +4014,15 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>111</v>
@@ -4020,7 +4065,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4062,7 +4107,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>86</v>
@@ -4077,15 +4122,15 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4108,13 +4153,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4165,7 +4210,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4177,21 +4222,21 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4223,7 +4268,7 @@
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4292,7 +4337,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>103</v>
@@ -4395,7 +4440,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>105</v>
@@ -4498,13 +4543,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>105</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -4536,7 +4581,7 @@
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -4605,10 +4650,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4708,10 +4753,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4813,10 +4858,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4856,7 +4901,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>77</v>
@@ -4898,7 +4943,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>86</v>
@@ -4913,15 +4958,15 @@
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4944,7 +4989,7 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>81</v>
@@ -5001,7 +5046,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5013,21 +5058,21 @@
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>105</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -5059,7 +5104,7 @@
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5128,10 +5173,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5231,10 +5276,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5336,10 +5381,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5379,7 +5424,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -5421,7 +5466,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>86</v>
@@ -5436,15 +5481,15 @@
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5467,7 +5512,7 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>81</v>
@@ -5524,7 +5569,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -5536,21 +5581,21 @@
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>105</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -5582,7 +5627,7 @@
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -5651,10 +5696,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5754,10 +5799,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -5859,10 +5904,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -5902,7 +5947,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>146</v>
+        <v>190</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -5944,7 +5989,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>86</v>
@@ -5959,15 +6004,15 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -5990,7 +6035,7 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>81</v>
@@ -6047,7 +6092,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -6059,15 +6104,15 @@
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>111</v>
@@ -6110,7 +6155,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6152,7 +6197,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>86</v>
@@ -6167,15 +6212,15 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6198,13 +6243,13 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6255,7 +6300,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -6267,21 +6312,21 @@
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -6313,7 +6358,7 @@
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -6382,7 +6427,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>103</v>
@@ -6485,7 +6530,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>105</v>
@@ -6588,13 +6633,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>105</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>77</v>
@@ -6626,7 +6671,7 @@
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -6695,10 +6740,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -6798,10 +6843,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -6903,10 +6948,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -6946,7 +6991,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>77</v>
@@ -6988,7 +7033,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>86</v>
@@ -7003,15 +7048,15 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7034,7 +7079,7 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>81</v>
@@ -7091,7 +7136,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -7103,21 +7148,21 @@
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>105</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>77</v>
@@ -7149,7 +7194,7 @@
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -7218,10 +7263,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7321,10 +7366,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7426,10 +7471,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -7469,7 +7514,7 @@
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>165</v>
+        <v>212</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>77</v>
@@ -7511,7 +7556,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>86</v>
@@ -7526,15 +7571,15 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -7557,7 +7602,7 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L62" t="s" s="2">
         <v>81</v>
@@ -7614,7 +7659,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -7626,21 +7671,21 @@
         <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>105</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>77</v>
@@ -7672,7 +7717,7 @@
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -7741,10 +7786,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -7844,10 +7889,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -7949,10 +7994,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -7992,7 +8037,7 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>77</v>
@@ -8034,7 +8079,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>86</v>
@@ -8049,15 +8094,15 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8080,7 +8125,7 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L67" t="s" s="2">
         <v>81</v>
@@ -8137,7 +8182,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -8149,21 +8194,21 @@
         <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>105</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>77</v>
@@ -8195,7 +8240,7 @@
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -8264,10 +8309,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8367,10 +8412,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -8472,10 +8517,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -8515,7 +8560,7 @@
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>77</v>
@@ -8557,7 +8602,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>86</v>
@@ -8572,15 +8617,15 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -8603,7 +8648,7 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L72" t="s" s="2">
         <v>81</v>
@@ -8660,7 +8705,7 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -8672,21 +8717,21 @@
         <v>77</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>105</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>77</v>
@@ -8718,7 +8763,7 @@
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -8787,10 +8832,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -8890,10 +8935,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -8995,10 +9040,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9038,7 +9083,7 @@
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" t="s" s="2">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="S76" t="s" s="2">
         <v>77</v>
@@ -9080,7 +9125,7 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>86</v>
@@ -9095,15 +9140,15 @@
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9126,7 +9171,7 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>81</v>
@@ -9183,7 +9228,7 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -9195,21 +9240,21 @@
         <v>77</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>105</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>77</v>
@@ -9241,7 +9286,7 @@
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>77</v>
@@ -9310,10 +9355,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -9413,10 +9458,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -9518,10 +9563,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -9561,7 +9606,7 @@
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" t="s" s="2">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>77</v>
@@ -9603,7 +9648,7 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>86</v>
@@ -9618,15 +9663,15 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -9649,7 +9694,7 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="L82" t="s" s="2">
         <v>81</v>
@@ -9706,7 +9751,7 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -9718,21 +9763,21 @@
         <v>77</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>105</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>77</v>
@@ -9764,7 +9809,7 @@
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>77</v>
@@ -9833,10 +9878,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -9936,10 +9981,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10041,10 +10086,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10084,7 +10129,7 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>77</v>
@@ -10126,7 +10171,7 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>86</v>
@@ -10141,15 +10186,15 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -10172,7 +10217,7 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L87" t="s" s="2">
         <v>81</v>
@@ -10229,7 +10274,7 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -10241,21 +10286,21 @@
         <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>105</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>77</v>
@@ -10287,7 +10332,7 @@
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -10356,10 +10401,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -10459,10 +10504,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -10564,10 +10609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -10607,7 +10652,7 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>146</v>
+        <v>260</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>77</v>
@@ -10649,7 +10694,7 @@
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>86</v>
@@ -10664,15 +10709,15 @@
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -10695,7 +10740,7 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L92" t="s" s="2">
         <v>81</v>
@@ -10752,7 +10797,7 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -10764,15 +10809,15 @@
         <v>77</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>111</v>
@@ -10815,7 +10860,7 @@
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>77</v>
@@ -10857,7 +10902,7 @@
         <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>86</v>
@@ -10872,15 +10917,15 @@
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -10903,13 +10948,13 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -10960,7 +11005,7 @@
         <v>77</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -10972,18 +11017,18 @@
         <v>77</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -11065,7 +11110,7 @@
         <v>77</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>86</v>
@@ -11080,15 +11125,15 @@
         <v>77</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -11111,13 +11156,13 @@
         <v>77</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -11168,7 +11213,7 @@
         <v>77</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -11180,10 +11225,10 @@
         <v>77</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-SubstanceReferenceInformation.xlsx
+++ b/StructureDefinition-ext-R5-SubstanceReferenceInformation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -501,7 +501,7 @@
     <t>Extension.extension:gene.extension:source.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DocumentReference-for-Media|0.0.1-snapshot-3|Media|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DocumentReference-for-Media|Media)
 </t>
   </si>
   <si>

--- a/StructureDefinition-ext-R5-SubstanceReferenceInformation.xlsx
+++ b/StructureDefinition-ext-R5-SubstanceReferenceInformation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -501,7 +501,7 @@
     <t>Extension.extension:gene.extension:source.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DocumentReference-for-Media|Media)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DocumentReference-for-Media|0.0.1-snapshot-3|Media|4.0.1)
 </t>
   </si>
   <si>
